--- a/mosip_master/xlsx/user_detail_h.xlsx
+++ b/mosip_master/xlsx/user_detail_h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\MASTER DATA\Master DAta Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD21CB30-65C2-44BB-BA36-16C6EF82585D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BE23E9-15AA-4588-8472-6F19AD347B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A50AB6CA-8963-414F-AC35-7F2A9A2A0667}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A50AB6CA-8963-414F-AC35-7F2A9A2A0667}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="543">
   <si>
     <t>id</t>
   </si>
@@ -1662,6 +1662,9 @@
   </si>
   <si>
     <t>moses.zebosi (operator)</t>
+  </si>
+  <si>
+    <t>now()</t>
   </si>
 </sst>
 </file>
@@ -2089,24 +2092,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70704E1F-DAF5-4599-861B-FE8C7B02F5DB}">
   <dimension ref="A1:N264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B245" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="6" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -2178,15 +2181,15 @@
       <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7">
-        <v>7.1254629629629598E-2</v>
+      <c r="L2" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -2214,15 +2217,15 @@
       <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7">
-        <v>0.11292129629629601</v>
+      <c r="L3" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -2250,15 +2253,15 @@
       <c r="K4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7">
-        <v>0.15458796296296301</v>
+      <c r="L4" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -2286,15 +2289,15 @@
       <c r="K5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="7">
-        <v>0.19625462962963</v>
+      <c r="L5" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -2322,15 +2325,15 @@
       <c r="K6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="7">
-        <v>0.23792129629629599</v>
+      <c r="L6" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -2358,15 +2361,15 @@
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="7">
-        <v>0.27958796296296301</v>
+      <c r="L7" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
@@ -2394,15 +2397,15 @@
       <c r="K8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="7">
-        <v>0.32125462962962997</v>
+      <c r="L8" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -2430,15 +2433,15 @@
       <c r="K9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="7">
-        <v>0.36292129629629599</v>
+      <c r="L9" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M9" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
@@ -2466,15 +2469,15 @@
       <c r="K10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="7">
-        <v>0.40458796296296301</v>
+      <c r="L10" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
@@ -2502,15 +2505,15 @@
       <c r="K11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="7">
-        <v>0.44625462962962997</v>
+      <c r="L11" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M11" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
@@ -2538,15 +2541,15 @@
       <c r="K12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="7">
-        <v>0.48792129629629599</v>
+      <c r="L12" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
@@ -2574,15 +2577,15 @@
       <c r="K13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="7">
-        <v>0.52958796296296295</v>
+      <c r="L13" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M13" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
@@ -2610,15 +2613,15 @@
       <c r="K14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="7">
-        <v>0.57125462962963003</v>
+      <c r="L14" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M14" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
@@ -2646,15 +2649,15 @@
       <c r="K15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="7">
-        <v>0.61292129629629599</v>
+      <c r="L15" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M15" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
@@ -2682,15 +2685,15 @@
       <c r="K16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="7">
-        <v>0.65458796296296295</v>
+      <c r="L16" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
@@ -2718,15 +2721,15 @@
       <c r="K17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="7">
-        <v>0.69625462962963003</v>
+      <c r="L17" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
@@ -2754,15 +2757,15 @@
       <c r="K18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="7">
-        <v>0.73792129629629599</v>
+      <c r="L18" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
@@ -2790,15 +2793,15 @@
       <c r="K19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="7">
-        <v>0.77958796296296295</v>
+      <c r="L19" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M19" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
@@ -2826,15 +2829,15 @@
       <c r="K20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="7">
-        <v>0.82125462962963003</v>
+      <c r="L20" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M20" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>54</v>
       </c>
@@ -2862,15 +2865,15 @@
       <c r="K21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="7">
-        <v>0.86292129629629599</v>
+      <c r="L21" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M21" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>56</v>
       </c>
@@ -2898,15 +2901,15 @@
       <c r="K22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="7">
-        <v>0.90458796296296295</v>
+      <c r="L22" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M22" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>58</v>
       </c>
@@ -2934,15 +2937,15 @@
       <c r="K23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="7">
-        <v>0.94625462962963003</v>
+      <c r="L23" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
@@ -2970,15 +2973,15 @@
       <c r="K24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="7">
-        <v>0.98792129629629599</v>
+      <c r="L24" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>62</v>
       </c>
@@ -3006,15 +3009,15 @@
       <c r="K25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="7">
-        <v>1.0295879629629601</v>
+      <c r="L25" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M25" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>64</v>
       </c>
@@ -3042,15 +3045,15 @@
       <c r="K26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="7">
-        <v>1.0712546296296299</v>
+      <c r="L26" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>66</v>
       </c>
@@ -3078,15 +3081,15 @@
       <c r="K27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="7">
-        <v>1.1129212962963</v>
+      <c r="L27" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M27" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>68</v>
       </c>
@@ -3114,15 +3117,15 @@
       <c r="K28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="7">
-        <v>1.1545879629629601</v>
+      <c r="L28" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M28" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>70</v>
       </c>
@@ -3150,15 +3153,15 @@
       <c r="K29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="7">
-        <v>1.1962546296296299</v>
+      <c r="L29" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M29" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>72</v>
       </c>
@@ -3186,15 +3189,15 @@
       <c r="K30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="7">
-        <v>1.2379212962963</v>
+      <c r="L30" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M30" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
@@ -3222,15 +3225,15 @@
       <c r="K31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="7">
-        <v>1.2795879629629601</v>
+      <c r="L31" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M31" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>76</v>
       </c>
@@ -3258,15 +3261,15 @@
       <c r="K32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="7">
-        <v>1.3212546296296299</v>
+      <c r="L32" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M32" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>78</v>
       </c>
@@ -3294,15 +3297,15 @@
       <c r="K33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="7">
-        <v>1.3629212962963</v>
+      <c r="L33" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M33" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>80</v>
       </c>
@@ -3330,15 +3333,15 @@
       <c r="K34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="7">
-        <v>1.4045879629629601</v>
+      <c r="L34" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M34" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>82</v>
       </c>
@@ -3366,15 +3369,15 @@
       <c r="K35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="7">
-        <v>1.4462546296296299</v>
+      <c r="L35" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M35" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>84</v>
       </c>
@@ -3402,15 +3405,15 @@
       <c r="K36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="7">
-        <v>1.4879212962963</v>
+      <c r="L36" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M36" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>86</v>
       </c>
@@ -3438,15 +3441,15 @@
       <c r="K37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="7">
-        <v>1.5295879629629601</v>
+      <c r="L37" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M37" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>88</v>
       </c>
@@ -3474,15 +3477,15 @@
       <c r="K38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="7">
-        <v>1.5712546296296299</v>
+      <c r="L38" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M38" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>90</v>
       </c>
@@ -3510,15 +3513,15 @@
       <c r="K39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="7">
-        <v>1.6129212962963</v>
+      <c r="L39" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M39" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>92</v>
       </c>
@@ -3546,15 +3549,15 @@
       <c r="K40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L40" s="7">
-        <v>1.6545879629629601</v>
+      <c r="L40" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M40" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>94</v>
       </c>
@@ -3582,15 +3585,15 @@
       <c r="K41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L41" s="7">
-        <v>1.6962546296296299</v>
+      <c r="L41" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M41" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>96</v>
       </c>
@@ -3618,15 +3621,15 @@
       <c r="K42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="7">
-        <v>1.7379212962963</v>
+      <c r="L42" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M42" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>98</v>
       </c>
@@ -3654,15 +3657,15 @@
       <c r="K43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L43" s="7">
-        <v>1.7795879629629601</v>
+      <c r="L43" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M43" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>100</v>
       </c>
@@ -3690,15 +3693,15 @@
       <c r="K44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="7">
-        <v>1.8212546296296299</v>
+      <c r="L44" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M44" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>102</v>
       </c>
@@ -3726,15 +3729,15 @@
       <c r="K45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L45" s="7">
-        <v>1.8629212962963</v>
+      <c r="L45" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M45" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>104</v>
       </c>
@@ -3762,15 +3765,15 @@
       <c r="K46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L46" s="7">
-        <v>1.9045879629629601</v>
+      <c r="L46" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M46" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>106</v>
       </c>
@@ -3798,15 +3801,15 @@
       <c r="K47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="7">
-        <v>1.9462546296296299</v>
+      <c r="L47" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M47" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>108</v>
       </c>
@@ -3834,15 +3837,15 @@
       <c r="K48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L48" s="7">
-        <v>1.9879212962963</v>
+      <c r="L48" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M48" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>110</v>
       </c>
@@ -3870,15 +3873,15 @@
       <c r="K49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L49" s="7">
-        <v>2.0295879629629598</v>
+      <c r="L49" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M49" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>112</v>
       </c>
@@ -3906,15 +3909,15 @@
       <c r="K50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="7">
-        <v>2.0712546296296299</v>
+      <c r="L50" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M50" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>114</v>
       </c>
@@ -3942,15 +3945,15 @@
       <c r="K51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L51" s="7">
-        <v>2.1129212962963</v>
+      <c r="L51" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M51" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>116</v>
       </c>
@@ -3978,15 +3981,15 @@
       <c r="K52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L52" s="7">
-        <v>2.1545879629629598</v>
+      <c r="L52" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M52" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>118</v>
       </c>
@@ -4014,15 +4017,15 @@
       <c r="K53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="7">
-        <v>2.1962546296296299</v>
+      <c r="L53" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M53" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>120</v>
       </c>
@@ -4050,15 +4053,15 @@
       <c r="K54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L54" s="7">
-        <v>2.2379212962963</v>
+      <c r="L54" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M54" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>122</v>
       </c>
@@ -4086,15 +4089,15 @@
       <c r="K55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L55" s="7">
-        <v>2.2795879629629598</v>
+      <c r="L55" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M55" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>124</v>
       </c>
@@ -4122,15 +4125,15 @@
       <c r="K56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L56" s="7">
-        <v>2.3212546296296299</v>
+      <c r="L56" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M56" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>126</v>
       </c>
@@ -4158,15 +4161,15 @@
       <c r="K57" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L57" s="7">
-        <v>2.3629212962963</v>
+      <c r="L57" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M57" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>128</v>
       </c>
@@ -4194,15 +4197,15 @@
       <c r="K58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L58" s="7">
-        <v>2.4045879629629598</v>
+      <c r="L58" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M58" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>130</v>
       </c>
@@ -4230,15 +4233,15 @@
       <c r="K59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L59" s="7">
-        <v>2.4462546296296299</v>
+      <c r="L59" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M59" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>132</v>
       </c>
@@ -4266,15 +4269,15 @@
       <c r="K60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L60" s="7">
-        <v>2.4879212962963</v>
+      <c r="L60" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M60" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>134</v>
       </c>
@@ -4302,15 +4305,15 @@
       <c r="K61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L61" s="7">
-        <v>2.5295879629629598</v>
+      <c r="L61" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M61" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>136</v>
       </c>
@@ -4338,15 +4341,15 @@
       <c r="K62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L62" s="7">
-        <v>2.5712546296296299</v>
+      <c r="L62" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M62" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>138</v>
       </c>
@@ -4374,15 +4377,15 @@
       <c r="K63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L63" s="7">
-        <v>2.6129212962963</v>
+      <c r="L63" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M63" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>140</v>
       </c>
@@ -4410,15 +4413,15 @@
       <c r="K64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L64" s="7">
-        <v>2.6545879629629598</v>
+      <c r="L64" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M64" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>142</v>
       </c>
@@ -4446,15 +4449,15 @@
       <c r="K65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L65" s="7">
-        <v>2.6962546296296299</v>
+      <c r="L65" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M65" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>144</v>
       </c>
@@ -4482,15 +4485,15 @@
       <c r="K66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L66" s="7">
-        <v>2.7379212962963</v>
+      <c r="L66" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M66" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>146</v>
       </c>
@@ -4518,15 +4521,15 @@
       <c r="K67" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L67" s="7">
-        <v>2.7795879629629598</v>
+      <c r="L67" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M67" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>148</v>
       </c>
@@ -4554,15 +4557,15 @@
       <c r="K68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L68" s="7">
-        <v>2.8212546296296299</v>
+      <c r="L68" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M68" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>150</v>
       </c>
@@ -4590,15 +4593,15 @@
       <c r="K69" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L69" s="7">
-        <v>2.8629212962963</v>
+      <c r="L69" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M69" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>152</v>
       </c>
@@ -4626,15 +4629,15 @@
       <c r="K70" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L70" s="7">
-        <v>2.9045879629629598</v>
+      <c r="L70" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M70" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>154</v>
       </c>
@@ -4662,15 +4665,15 @@
       <c r="K71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L71" s="7">
-        <v>2.9462546296296299</v>
+      <c r="L71" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M71" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>156</v>
       </c>
@@ -4698,15 +4701,15 @@
       <c r="K72" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L72" s="7">
-        <v>2.9879212962963</v>
+      <c r="L72" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M72" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>158</v>
       </c>
@@ -4734,15 +4737,15 @@
       <c r="K73" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L73" s="7">
-        <v>3.0295879629629598</v>
+      <c r="L73" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M73" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>160</v>
       </c>
@@ -4770,15 +4773,15 @@
       <c r="K74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L74" s="7">
-        <v>3.0712546296296299</v>
+      <c r="L74" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M74" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>162</v>
       </c>
@@ -4806,15 +4809,15 @@
       <c r="K75" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L75" s="7">
-        <v>3.1129212962963</v>
+      <c r="L75" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M75" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>164</v>
       </c>
@@ -4842,15 +4845,15 @@
       <c r="K76" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L76" s="7">
-        <v>3.1545879629629598</v>
+      <c r="L76" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M76" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>166</v>
       </c>
@@ -4878,15 +4881,15 @@
       <c r="K77" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L77" s="7">
-        <v>3.1962546296296299</v>
+      <c r="L77" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M77" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>168</v>
       </c>
@@ -4914,15 +4917,15 @@
       <c r="K78" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L78" s="7">
-        <v>3.2379212962963</v>
+      <c r="L78" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M78" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
         <v>170</v>
       </c>
@@ -4950,15 +4953,15 @@
       <c r="K79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L79" s="7">
-        <v>3.2795879629629598</v>
+      <c r="L79" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M79" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
         <v>172</v>
       </c>
@@ -4986,15 +4989,15 @@
       <c r="K80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L80" s="7">
-        <v>3.3212546296296299</v>
+      <c r="L80" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M80" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
         <v>174</v>
       </c>
@@ -5022,15 +5025,15 @@
       <c r="K81" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L81" s="7">
-        <v>3.3629212962963</v>
+      <c r="L81" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M81" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>176</v>
       </c>
@@ -5058,15 +5061,15 @@
       <c r="K82" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L82" s="7">
-        <v>3.4045879629629598</v>
+      <c r="L82" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M82" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>178</v>
       </c>
@@ -5094,15 +5097,15 @@
       <c r="K83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L83" s="7">
-        <v>3.4462546296296299</v>
+      <c r="L83" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M83" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>180</v>
       </c>
@@ -5130,15 +5133,15 @@
       <c r="K84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L84" s="7">
-        <v>3.4879212962963</v>
+      <c r="L84" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M84" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>182</v>
       </c>
@@ -5166,15 +5169,15 @@
       <c r="K85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L85" s="7">
-        <v>3.5295879629629598</v>
+      <c r="L85" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M85" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>184</v>
       </c>
@@ -5202,15 +5205,15 @@
       <c r="K86" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L86" s="7">
-        <v>3.5712546296296299</v>
+      <c r="L86" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M86" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
         <v>186</v>
       </c>
@@ -5238,15 +5241,15 @@
       <c r="K87" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L87" s="7">
-        <v>3.6129212962963</v>
+      <c r="L87" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M87" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>188</v>
       </c>
@@ -5274,15 +5277,15 @@
       <c r="K88" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L88" s="7">
-        <v>3.6545879629629598</v>
+      <c r="L88" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M88" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>190</v>
       </c>
@@ -5310,15 +5313,15 @@
       <c r="K89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L89" s="7">
-        <v>3.6962546296296299</v>
+      <c r="L89" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M89" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>192</v>
       </c>
@@ -5346,15 +5349,15 @@
       <c r="K90" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L90" s="7">
-        <v>3.7379212962963</v>
+      <c r="L90" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M90" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>194</v>
       </c>
@@ -5382,15 +5385,15 @@
       <c r="K91" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L91" s="7">
-        <v>3.7795879629629598</v>
+      <c r="L91" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M91" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>196</v>
       </c>
@@ -5418,15 +5421,15 @@
       <c r="K92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L92" s="7">
-        <v>3.8212546296296299</v>
+      <c r="L92" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M92" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N92" s="5"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>198</v>
       </c>
@@ -5454,15 +5457,15 @@
       <c r="K93" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L93" s="7">
-        <v>3.8629212962963</v>
+      <c r="L93" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M93" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N93" s="5"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
         <v>200</v>
       </c>
@@ -5490,15 +5493,15 @@
       <c r="K94" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L94" s="7">
-        <v>3.9045879629629598</v>
+      <c r="L94" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M94" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N94" s="5"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>202</v>
       </c>
@@ -5526,15 +5529,15 @@
       <c r="K95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L95" s="7">
-        <v>3.9462546296296299</v>
+      <c r="L95" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M95" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N95" s="5"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>204</v>
       </c>
@@ -5562,15 +5565,15 @@
       <c r="K96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L96" s="7">
-        <v>3.9879212962963</v>
+      <c r="L96" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M96" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N96" s="5"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>206</v>
       </c>
@@ -5598,15 +5601,15 @@
       <c r="K97" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L97" s="7">
-        <v>4.0295879629629603</v>
+      <c r="L97" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M97" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N97" s="5"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>208</v>
       </c>
@@ -5634,15 +5637,15 @@
       <c r="K98" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L98" s="7">
-        <v>4.0712546296296299</v>
+      <c r="L98" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M98" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N98" s="5"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>210</v>
       </c>
@@ -5670,15 +5673,15 @@
       <c r="K99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L99" s="7">
-        <v>4.1129212962963004</v>
+      <c r="L99" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M99" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N99" s="5"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>212</v>
       </c>
@@ -5706,15 +5709,15 @@
       <c r="K100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L100" s="7">
-        <v>4.1545879629629603</v>
+      <c r="L100" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M100" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N100" s="5"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>214</v>
       </c>
@@ -5742,15 +5745,15 @@
       <c r="K101" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L101" s="7">
-        <v>4.1962546296296299</v>
+      <c r="L101" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M101" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N101" s="5"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
         <v>216</v>
       </c>
@@ -5778,15 +5781,15 @@
       <c r="K102" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L102" s="7">
-        <v>4.2379212962963004</v>
+      <c r="L102" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M102" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N102" s="5"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
         <v>218</v>
       </c>
@@ -5814,15 +5817,15 @@
       <c r="K103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L103" s="7">
-        <v>4.2795879629629603</v>
+      <c r="L103" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M103" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N103" s="5"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>220</v>
       </c>
@@ -5850,15 +5853,15 @@
       <c r="K104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L104" s="7">
-        <v>4.3212546296296299</v>
+      <c r="L104" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M104" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N104" s="5"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
         <v>222</v>
       </c>
@@ -5886,15 +5889,15 @@
       <c r="K105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L105" s="7">
-        <v>4.3629212962963004</v>
+      <c r="L105" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M105" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N105" s="5"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
         <v>224</v>
       </c>
@@ -5922,15 +5925,15 @@
       <c r="K106" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L106" s="7">
-        <v>4.4045879629629603</v>
+      <c r="L106" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M106" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N106" s="5"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>226</v>
       </c>
@@ -5958,15 +5961,15 @@
       <c r="K107" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L107" s="7">
-        <v>4.4462546296296299</v>
+      <c r="L107" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M107" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N107" s="5"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
         <v>228</v>
       </c>
@@ -5994,15 +5997,15 @@
       <c r="K108" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L108" s="7">
-        <v>4.4879212962963004</v>
+      <c r="L108" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M108" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N108" s="5"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
         <v>230</v>
       </c>
@@ -6030,15 +6033,15 @@
       <c r="K109" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L109" s="7">
-        <v>4.5295879629629603</v>
+      <c r="L109" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M109" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N109" s="5"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
         <v>232</v>
       </c>
@@ -6066,15 +6069,15 @@
       <c r="K110" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L110" s="7">
-        <v>4.5712546296296299</v>
+      <c r="L110" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M110" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N110" s="5"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
         <v>234</v>
       </c>
@@ -6102,15 +6105,15 @@
       <c r="K111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L111" s="7">
-        <v>4.6129212962963004</v>
+      <c r="L111" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M111" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N111" s="5"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
         <v>236</v>
       </c>
@@ -6138,15 +6141,15 @@
       <c r="K112" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L112" s="7">
-        <v>4.6545879629629603</v>
+      <c r="L112" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M112" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N112" s="5"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
         <v>238</v>
       </c>
@@ -6174,15 +6177,15 @@
       <c r="K113" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L113" s="7">
-        <v>4.6962546296296299</v>
+      <c r="L113" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M113" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N113" s="5"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>240</v>
       </c>
@@ -6210,15 +6213,15 @@
       <c r="K114" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L114" s="7">
-        <v>4.7379212962963004</v>
+      <c r="L114" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M114" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N114" s="5"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>242</v>
       </c>
@@ -6246,15 +6249,15 @@
       <c r="K115" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L115" s="7">
-        <v>4.7795879629629603</v>
+      <c r="L115" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M115" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N115" s="5"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
         <v>244</v>
       </c>
@@ -6282,15 +6285,15 @@
       <c r="K116" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L116" s="7">
-        <v>4.8212546296296299</v>
+      <c r="L116" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M116" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N116" s="5"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
         <v>246</v>
       </c>
@@ -6318,15 +6321,15 @@
       <c r="K117" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L117" s="7">
-        <v>4.8629212962963004</v>
+      <c r="L117" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M117" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N117" s="5"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>248</v>
       </c>
@@ -6354,15 +6357,15 @@
       <c r="K118" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L118" s="7">
-        <v>4.9045879629629603</v>
+      <c r="L118" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M118" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N118" s="5"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>250</v>
       </c>
@@ -6390,15 +6393,15 @@
       <c r="K119" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L119" s="7">
-        <v>4.9462546296296299</v>
+      <c r="L119" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M119" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N119" s="5"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
         <v>252</v>
       </c>
@@ -6426,15 +6429,15 @@
       <c r="K120" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L120" s="7">
-        <v>4.9879212962963004</v>
+      <c r="L120" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M120" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N120" s="5"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
         <v>254</v>
       </c>
@@ -6462,15 +6465,15 @@
       <c r="K121" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L121" s="7">
-        <v>5.0295879629629603</v>
+      <c r="L121" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M121" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N121" s="5"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
         <v>256</v>
       </c>
@@ -6498,15 +6501,15 @@
       <c r="K122" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L122" s="7">
-        <v>5.0712546296296299</v>
+      <c r="L122" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M122" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N122" s="5"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
         <v>258</v>
       </c>
@@ -6534,15 +6537,15 @@
       <c r="K123" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L123" s="7">
-        <v>5.1129212962963004</v>
+      <c r="L123" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M123" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N123" s="5"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>260</v>
       </c>
@@ -6570,15 +6573,15 @@
       <c r="K124" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L124" s="7">
-        <v>5.1545879629629603</v>
+      <c r="L124" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M124" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N124" s="5"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>262</v>
       </c>
@@ -6606,15 +6609,15 @@
       <c r="K125" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L125" s="7">
-        <v>5.1962546296296299</v>
+      <c r="L125" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M125" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N125" s="5"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
         <v>264</v>
       </c>
@@ -6642,15 +6645,15 @@
       <c r="K126" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L126" s="7">
-        <v>5.2379212962963004</v>
+      <c r="L126" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M126" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N126" s="5"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
         <v>266</v>
       </c>
@@ -6678,15 +6681,15 @@
       <c r="K127" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L127" s="7">
-        <v>5.2795879629629603</v>
+      <c r="L127" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M127" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N127" s="5"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
         <v>268</v>
       </c>
@@ -6714,15 +6717,15 @@
       <c r="K128" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L128" s="7">
-        <v>5.3212546296296299</v>
+      <c r="L128" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M128" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N128" s="5"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>270</v>
       </c>
@@ -6750,15 +6753,15 @@
       <c r="K129" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L129" s="7">
-        <v>5.3629212962963004</v>
+      <c r="L129" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M129" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N129" s="5"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
         <v>272</v>
       </c>
@@ -6786,15 +6789,15 @@
       <c r="K130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L130" s="7">
-        <v>5.4045879629629603</v>
+      <c r="L130" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M130" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N130" s="5"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
         <v>274</v>
       </c>
@@ -6822,15 +6825,15 @@
       <c r="K131" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L131" s="7">
-        <v>5.4462546296296299</v>
+      <c r="L131" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M131" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N131" s="5"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>276</v>
       </c>
@@ -6858,15 +6861,15 @@
       <c r="K132" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L132" s="7">
-        <v>5.4879212962963004</v>
+      <c r="L132" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M132" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N132" s="5"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>278</v>
       </c>
@@ -6894,15 +6897,15 @@
       <c r="K133" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L133" s="7">
-        <v>5.5295879629629603</v>
+      <c r="L133" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M133" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N133" s="5"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
         <v>280</v>
       </c>
@@ -6930,15 +6933,15 @@
       <c r="K134" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L134" s="7">
-        <v>5.5712546296296299</v>
+      <c r="L134" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M134" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N134" s="5"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
         <v>282</v>
       </c>
@@ -6966,15 +6969,15 @@
       <c r="K135" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L135" s="7">
-        <v>5.6129212962963004</v>
+      <c r="L135" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M135" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N135" s="5"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
         <v>284</v>
       </c>
@@ -7002,15 +7005,15 @@
       <c r="K136" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L136" s="7">
-        <v>5.6545879629629603</v>
+      <c r="L136" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M136" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N136" s="5"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
         <v>286</v>
       </c>
@@ -7038,15 +7041,15 @@
       <c r="K137" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L137" s="7">
-        <v>5.6962546296296299</v>
+      <c r="L137" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M137" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N137" s="5"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
         <v>288</v>
       </c>
@@ -7074,15 +7077,15 @@
       <c r="K138" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L138" s="7">
-        <v>5.7379212962963004</v>
+      <c r="L138" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M138" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N138" s="5"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
         <v>290</v>
       </c>
@@ -7110,15 +7113,15 @@
       <c r="K139" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L139" s="7">
-        <v>5.7795879629629603</v>
+      <c r="L139" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M139" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N139" s="5"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>292</v>
       </c>
@@ -7146,15 +7149,15 @@
       <c r="K140" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L140" s="7">
-        <v>5.8212546296296299</v>
+      <c r="L140" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M140" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N140" s="5"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
         <v>294</v>
       </c>
@@ -7182,15 +7185,15 @@
       <c r="K141" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L141" s="7">
-        <v>5.8629212962963004</v>
+      <c r="L141" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M141" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N141" s="5"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
         <v>296</v>
       </c>
@@ -7218,15 +7221,15 @@
       <c r="K142" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L142" s="7">
-        <v>5.9045879629629603</v>
+      <c r="L142" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M142" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N142" s="5"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
         <v>298</v>
       </c>
@@ -7254,15 +7257,15 @@
       <c r="K143" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L143" s="7">
-        <v>5.9462546296296299</v>
+      <c r="L143" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M143" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N143" s="5"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
         <v>300</v>
       </c>
@@ -7290,15 +7293,15 @@
       <c r="K144" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L144" s="7">
-        <v>5.9879212962963004</v>
+      <c r="L144" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M144" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N144" s="5"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
         <v>302</v>
       </c>
@@ -7326,15 +7329,15 @@
       <c r="K145" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L145" s="7">
-        <v>6.0295879629629603</v>
+      <c r="L145" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M145" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N145" s="5"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
         <v>304</v>
       </c>
@@ -7362,15 +7365,15 @@
       <c r="K146" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L146" s="7">
-        <v>6.0712546296296299</v>
+      <c r="L146" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M146" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N146" s="5"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>306</v>
       </c>
@@ -7398,15 +7401,15 @@
       <c r="K147" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L147" s="7">
-        <v>6.1129212962963004</v>
+      <c r="L147" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M147" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N147" s="5"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
         <v>308</v>
       </c>
@@ -7434,15 +7437,15 @@
       <c r="K148" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L148" s="7">
-        <v>6.1545879629629603</v>
+      <c r="L148" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M148" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N148" s="5"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
         <v>310</v>
       </c>
@@ -7470,15 +7473,15 @@
       <c r="K149" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L149" s="7">
-        <v>6.1962546296296299</v>
+      <c r="L149" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M149" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N149" s="5"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
         <v>312</v>
       </c>
@@ -7506,15 +7509,15 @@
       <c r="K150" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L150" s="7">
-        <v>6.2379212962963004</v>
+      <c r="L150" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M150" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N150" s="5"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
         <v>314</v>
       </c>
@@ -7542,15 +7545,15 @@
       <c r="K151" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L151" s="7">
-        <v>6.2795879629629603</v>
+      <c r="L151" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M151" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N151" s="5"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
         <v>316</v>
       </c>
@@ -7578,15 +7581,15 @@
       <c r="K152" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L152" s="7">
-        <v>6.3212546296296299</v>
+      <c r="L152" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M152" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N152" s="5"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
         <v>318</v>
       </c>
@@ -7614,15 +7617,15 @@
       <c r="K153" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L153" s="7">
-        <v>6.3629212962963004</v>
+      <c r="L153" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M153" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N153" s="5"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="8" t="s">
         <v>320</v>
       </c>
@@ -7650,15 +7653,15 @@
       <c r="K154" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L154" s="7">
-        <v>6.4045879629629603</v>
+      <c r="L154" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M154" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N154" s="5"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
         <v>322</v>
       </c>
@@ -7686,15 +7689,15 @@
       <c r="K155" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L155" s="7">
-        <v>6.4462546296296299</v>
+      <c r="L155" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M155" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N155" s="5"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
         <v>324</v>
       </c>
@@ -7722,15 +7725,15 @@
       <c r="K156" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L156" s="7">
-        <v>6.4879212962963004</v>
+      <c r="L156" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M156" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N156" s="5"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
         <v>326</v>
       </c>
@@ -7758,15 +7761,15 @@
       <c r="K157" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L157" s="7">
-        <v>6.5295879629629603</v>
+      <c r="L157" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M157" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N157" s="5"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
         <v>328</v>
       </c>
@@ -7794,15 +7797,15 @@
       <c r="K158" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L158" s="7">
-        <v>6.5712546296296299</v>
+      <c r="L158" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M158" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N158" s="5"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
         <v>330</v>
       </c>
@@ -7830,15 +7833,15 @@
       <c r="K159" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L159" s="7">
-        <v>6.6129212962963004</v>
+      <c r="L159" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M159" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N159" s="5"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
         <v>332</v>
       </c>
@@ -7866,15 +7869,15 @@
       <c r="K160" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L160" s="7">
-        <v>6.6545879629629603</v>
+      <c r="L160" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M160" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N160" s="5"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
         <v>334</v>
       </c>
@@ -7902,15 +7905,15 @@
       <c r="K161" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L161" s="7">
-        <v>6.6962546296296299</v>
+      <c r="L161" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M161" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N161" s="5"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
         <v>336</v>
       </c>
@@ -7938,15 +7941,15 @@
       <c r="K162" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L162" s="7">
-        <v>6.7379212962963004</v>
+      <c r="L162" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M162" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N162" s="5"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
         <v>338</v>
       </c>
@@ -7974,15 +7977,15 @@
       <c r="K163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L163" s="7">
-        <v>6.7795879629629603</v>
+      <c r="L163" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M163" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N163" s="5"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
         <v>340</v>
       </c>
@@ -8010,15 +8013,15 @@
       <c r="K164" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L164" s="7">
-        <v>6.8212546296296299</v>
+      <c r="L164" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M164" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N164" s="5"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
         <v>342</v>
       </c>
@@ -8046,15 +8049,15 @@
       <c r="K165" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L165" s="7">
-        <v>6.8629212962963004</v>
+      <c r="L165" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M165" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N165" s="5"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
         <v>344</v>
       </c>
@@ -8082,15 +8085,15 @@
       <c r="K166" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L166" s="7">
-        <v>6.9045879629629603</v>
+      <c r="L166" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M166" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N166" s="5"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
         <v>346</v>
       </c>
@@ -8118,15 +8121,15 @@
       <c r="K167" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L167" s="7">
-        <v>6.9462546296296299</v>
+      <c r="L167" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M167" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N167" s="5"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="8" t="s">
         <v>348</v>
       </c>
@@ -8154,15 +8157,15 @@
       <c r="K168" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L168" s="7">
-        <v>6.9879212962963004</v>
+      <c r="L168" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M168" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N168" s="5"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="8" t="s">
         <v>350</v>
       </c>
@@ -8190,15 +8193,15 @@
       <c r="K169" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L169" s="7">
-        <v>7.0295879629629603</v>
+      <c r="L169" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M169" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N169" s="5"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="8" t="s">
         <v>352</v>
       </c>
@@ -8226,15 +8229,15 @@
       <c r="K170" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L170" s="7">
-        <v>7.0712546296296299</v>
+      <c r="L170" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M170" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N170" s="5"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
         <v>354</v>
       </c>
@@ -8262,15 +8265,15 @@
       <c r="K171" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L171" s="7">
-        <v>7.1129212962963004</v>
+      <c r="L171" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M171" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N171" s="5"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="8" t="s">
         <v>356</v>
       </c>
@@ -8298,15 +8301,15 @@
       <c r="K172" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L172" s="7">
-        <v>7.1545879629629603</v>
+      <c r="L172" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M172" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N172" s="5"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
         <v>358</v>
       </c>
@@ -8334,15 +8337,15 @@
       <c r="K173" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L173" s="7">
-        <v>7.1962546296296299</v>
+      <c r="L173" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M173" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N173" s="5"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="8" t="s">
         <v>360</v>
       </c>
@@ -8370,15 +8373,15 @@
       <c r="K174" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L174" s="7">
-        <v>7.2379212962963004</v>
+      <c r="L174" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M174" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N174" s="5"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="8" t="s">
         <v>362</v>
       </c>
@@ -8406,15 +8409,15 @@
       <c r="K175" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L175" s="7">
-        <v>7.2795879629629603</v>
+      <c r="L175" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M175" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N175" s="5"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="8" t="s">
         <v>364</v>
       </c>
@@ -8442,15 +8445,15 @@
       <c r="K176" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L176" s="7">
-        <v>7.3212546296296299</v>
+      <c r="L176" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M176" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N176" s="5"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="8" t="s">
         <v>366</v>
       </c>
@@ -8478,15 +8481,15 @@
       <c r="K177" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L177" s="7">
-        <v>7.3629212962963004</v>
+      <c r="L177" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M177" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N177" s="5"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="8" t="s">
         <v>368</v>
       </c>
@@ -8514,15 +8517,15 @@
       <c r="K178" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L178" s="7">
-        <v>7.4045879629629603</v>
+      <c r="L178" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M178" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N178" s="5"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="8" t="s">
         <v>370</v>
       </c>
@@ -8550,15 +8553,15 @@
       <c r="K179" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L179" s="7">
-        <v>7.4462546296296299</v>
+      <c r="L179" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M179" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N179" s="5"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="8" t="s">
         <v>372</v>
       </c>
@@ -8586,15 +8589,15 @@
       <c r="K180" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L180" s="7">
-        <v>7.4879212962963004</v>
+      <c r="L180" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M180" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N180" s="5"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="8" t="s">
         <v>374</v>
       </c>
@@ -8622,15 +8625,15 @@
       <c r="K181" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L181" s="7">
-        <v>7.5295879629629603</v>
+      <c r="L181" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M181" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N181" s="5"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="8" t="s">
         <v>376</v>
       </c>
@@ -8658,15 +8661,15 @@
       <c r="K182" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L182" s="7">
-        <v>7.5712546296296299</v>
+      <c r="L182" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M182" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N182" s="5"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="8" t="s">
         <v>378</v>
       </c>
@@ -8694,15 +8697,15 @@
       <c r="K183" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L183" s="7">
-        <v>7.6129212962963004</v>
+      <c r="L183" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M183" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N183" s="5"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="8" t="s">
         <v>380</v>
       </c>
@@ -8730,15 +8733,15 @@
       <c r="K184" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L184" s="7">
-        <v>7.6545879629629603</v>
+      <c r="L184" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M184" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N184" s="5"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="8" t="s">
         <v>382</v>
       </c>
@@ -8766,15 +8769,15 @@
       <c r="K185" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L185" s="7">
-        <v>7.6962546296296299</v>
+      <c r="L185" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M185" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N185" s="5"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="8" t="s">
         <v>384</v>
       </c>
@@ -8802,15 +8805,15 @@
       <c r="K186" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L186" s="7">
-        <v>7.7379212962963004</v>
+      <c r="L186" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M186" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N186" s="5"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
         <v>386</v>
       </c>
@@ -8838,15 +8841,15 @@
       <c r="K187" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L187" s="7">
-        <v>7.7795879629629603</v>
+      <c r="L187" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M187" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N187" s="5"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="8" t="s">
         <v>388</v>
       </c>
@@ -8874,15 +8877,15 @@
       <c r="K188" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L188" s="7">
-        <v>7.8212546296296299</v>
+      <c r="L188" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M188" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N188" s="5"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="8" t="s">
         <v>390</v>
       </c>
@@ -8910,15 +8913,15 @@
       <c r="K189" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L189" s="7">
-        <v>7.8629212962963004</v>
+      <c r="L189" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M189" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N189" s="5"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="8" t="s">
         <v>392</v>
       </c>
@@ -8946,15 +8949,15 @@
       <c r="K190" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L190" s="7">
-        <v>7.9045879629629603</v>
+      <c r="L190" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M190" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N190" s="5"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
         <v>394</v>
       </c>
@@ -8982,15 +8985,15 @@
       <c r="K191" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L191" s="7">
-        <v>7.9462546296296299</v>
+      <c r="L191" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M191" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N191" s="5"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="8" t="s">
         <v>396</v>
       </c>
@@ -9018,15 +9021,15 @@
       <c r="K192" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L192" s="7">
-        <v>7.9879212962963004</v>
+      <c r="L192" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M192" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N192" s="5"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="8" t="s">
         <v>398</v>
       </c>
@@ -9054,15 +9057,15 @@
       <c r="K193" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L193" s="7">
-        <v>8.0295879629629603</v>
+      <c r="L193" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M193" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N193" s="5"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="8" t="s">
         <v>400</v>
       </c>
@@ -9090,15 +9093,15 @@
       <c r="K194" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L194" s="7">
-        <v>8.0712546296296299</v>
+      <c r="L194" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M194" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N194" s="5"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
         <v>402</v>
       </c>
@@ -9126,15 +9129,15 @@
       <c r="K195" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L195" s="7">
-        <v>8.1129212962962995</v>
+      <c r="L195" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M195" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N195" s="5"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="8" t="s">
         <v>404</v>
       </c>
@@ -9162,15 +9165,15 @@
       <c r="K196" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L196" s="7">
-        <v>8.1545879629629603</v>
+      <c r="L196" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M196" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N196" s="5"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="8" t="s">
         <v>406</v>
       </c>
@@ -9198,15 +9201,15 @@
       <c r="K197" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L197" s="7">
-        <v>8.1962546296296299</v>
+      <c r="L197" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M197" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N197" s="5"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="8" t="s">
         <v>408</v>
       </c>
@@ -9234,15 +9237,15 @@
       <c r="K198" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L198" s="7">
-        <v>8.2379212962962995</v>
+      <c r="L198" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M198" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N198" s="5"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" s="8" t="s">
         <v>410</v>
       </c>
@@ -9270,15 +9273,15 @@
       <c r="K199" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L199" s="7">
-        <v>8.2795879629629603</v>
+      <c r="L199" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M199" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N199" s="5"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" s="8" t="s">
         <v>412</v>
       </c>
@@ -9306,15 +9309,15 @@
       <c r="K200" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L200" s="7">
-        <v>8.3212546296296299</v>
+      <c r="L200" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M200" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N200" s="5"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="8" t="s">
         <v>414</v>
       </c>
@@ -9342,15 +9345,15 @@
       <c r="K201" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L201" s="7">
-        <v>8.3629212962962995</v>
+      <c r="L201" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M201" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N201" s="5"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="8" t="s">
         <v>416</v>
       </c>
@@ -9378,15 +9381,15 @@
       <c r="K202" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L202" s="7">
-        <v>8.4045879629629603</v>
+      <c r="L202" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M202" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N202" s="5"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="8" t="s">
         <v>418</v>
       </c>
@@ -9414,15 +9417,15 @@
       <c r="K203" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L203" s="7">
-        <v>8.4462546296296299</v>
+      <c r="L203" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M203" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N203" s="5"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="8" t="s">
         <v>420</v>
       </c>
@@ -9450,15 +9453,15 @@
       <c r="K204" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L204" s="7">
-        <v>8.4879212962962995</v>
+      <c r="L204" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M204" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N204" s="5"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" s="8" t="s">
         <v>422</v>
       </c>
@@ -9486,15 +9489,15 @@
       <c r="K205" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L205" s="7">
-        <v>8.5295879629629603</v>
+      <c r="L205" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M205" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N205" s="5"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="8" t="s">
         <v>424</v>
       </c>
@@ -9522,15 +9525,15 @@
       <c r="K206" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L206" s="7">
-        <v>8.5712546296296299</v>
+      <c r="L206" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M206" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N206" s="5"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="8" t="s">
         <v>426</v>
       </c>
@@ -9558,15 +9561,15 @@
       <c r="K207" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L207" s="7">
-        <v>8.6129212962962995</v>
+      <c r="L207" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M207" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N207" s="5"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="8" t="s">
         <v>428</v>
       </c>
@@ -9594,15 +9597,15 @@
       <c r="K208" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L208" s="7">
-        <v>8.6545879629629603</v>
+      <c r="L208" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M208" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N208" s="5"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="8" t="s">
         <v>430</v>
       </c>
@@ -9630,15 +9633,15 @@
       <c r="K209" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L209" s="7">
-        <v>8.6962546296296299</v>
+      <c r="L209" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M209" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N209" s="5"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" s="8" t="s">
         <v>432</v>
       </c>
@@ -9666,15 +9669,15 @@
       <c r="K210" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L210" s="7">
-        <v>8.7379212962962995</v>
+      <c r="L210" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M210" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N210" s="5"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" s="8" t="s">
         <v>434</v>
       </c>
@@ -9702,15 +9705,15 @@
       <c r="K211" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L211" s="7">
-        <v>8.7795879629629603</v>
+      <c r="L211" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M211" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N211" s="5"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212" s="8" t="s">
         <v>436</v>
       </c>
@@ -9738,15 +9741,15 @@
       <c r="K212" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L212" s="7">
-        <v>8.8212546296296299</v>
+      <c r="L212" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M212" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N212" s="5"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" s="8" t="s">
         <v>438</v>
       </c>
@@ -9774,15 +9777,15 @@
       <c r="K213" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L213" s="7">
-        <v>8.8629212962962995</v>
+      <c r="L213" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M213" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N213" s="5"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214" s="8" t="s">
         <v>440</v>
       </c>
@@ -9810,15 +9813,15 @@
       <c r="K214" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L214" s="7">
-        <v>8.9045879629629603</v>
+      <c r="L214" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M214" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N214" s="5"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" s="8" t="s">
         <v>442</v>
       </c>
@@ -9846,15 +9849,15 @@
       <c r="K215" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L215" s="7">
-        <v>8.9462546296296299</v>
+      <c r="L215" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M215" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N215" s="5"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" s="8" t="s">
         <v>444</v>
       </c>
@@ -9882,15 +9885,15 @@
       <c r="K216" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L216" s="7">
-        <v>8.9879212962962995</v>
+      <c r="L216" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M216" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N216" s="5"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" s="8" t="s">
         <v>446</v>
       </c>
@@ -9918,15 +9921,15 @@
       <c r="K217" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L217" s="7">
-        <v>9.0295879629629603</v>
+      <c r="L217" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M217" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N217" s="5"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" s="8" t="s">
         <v>448</v>
       </c>
@@ -9954,15 +9957,15 @@
       <c r="K218" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L218" s="7">
-        <v>9.0712546296296299</v>
+      <c r="L218" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M218" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N218" s="5"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" s="8" t="s">
         <v>450</v>
       </c>
@@ -9990,15 +9993,15 @@
       <c r="K219" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L219" s="7">
-        <v>9.1129212962962995</v>
+      <c r="L219" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M219" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N219" s="5"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" s="8" t="s">
         <v>452</v>
       </c>
@@ -10026,15 +10029,15 @@
       <c r="K220" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L220" s="7">
-        <v>9.1545879629629603</v>
+      <c r="L220" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M220" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N220" s="5"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" s="8" t="s">
         <v>454</v>
       </c>
@@ -10062,15 +10065,15 @@
       <c r="K221" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L221" s="7">
-        <v>9.1962546296296299</v>
+      <c r="L221" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M221" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N221" s="5"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" s="8" t="s">
         <v>456</v>
       </c>
@@ -10098,15 +10101,15 @@
       <c r="K222" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L222" s="7">
-        <v>9.2379212962962995</v>
+      <c r="L222" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M222" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N222" s="5"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" s="8" t="s">
         <v>458</v>
       </c>
@@ -10134,15 +10137,15 @@
       <c r="K223" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L223" s="7">
-        <v>9.2795879629629603</v>
+      <c r="L223" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M223" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N223" s="5"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" s="8" t="s">
         <v>460</v>
       </c>
@@ -10170,15 +10173,15 @@
       <c r="K224" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L224" s="7">
-        <v>9.3212546296296299</v>
+      <c r="L224" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M224" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N224" s="5"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" s="8" t="s">
         <v>462</v>
       </c>
@@ -10206,15 +10209,15 @@
       <c r="K225" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L225" s="7">
-        <v>9.3629212962962995</v>
+      <c r="L225" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M225" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N225" s="5"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" s="8" t="s">
         <v>464</v>
       </c>
@@ -10242,15 +10245,15 @@
       <c r="K226" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L226" s="7">
-        <v>9.4045879629629603</v>
+      <c r="L226" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M226" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N226" s="5"/>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" s="8" t="s">
         <v>466</v>
       </c>
@@ -10278,15 +10281,15 @@
       <c r="K227" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L227" s="7">
-        <v>9.4462546296296299</v>
+      <c r="L227" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M227" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N227" s="5"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" s="8" t="s">
         <v>468</v>
       </c>
@@ -10314,15 +10317,15 @@
       <c r="K228" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L228" s="7">
-        <v>9.4879212962962995</v>
+      <c r="L228" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M228" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N228" s="5"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" s="8" t="s">
         <v>470</v>
       </c>
@@ -10350,15 +10353,15 @@
       <c r="K229" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L229" s="7">
-        <v>9.5295879629629603</v>
+      <c r="L229" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M229" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N229" s="5"/>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" s="8" t="s">
         <v>472</v>
       </c>
@@ -10386,15 +10389,15 @@
       <c r="K230" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L230" s="7">
-        <v>9.5712546296296299</v>
+      <c r="L230" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M230" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N230" s="5"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" s="8" t="s">
         <v>474</v>
       </c>
@@ -10422,15 +10425,15 @@
       <c r="K231" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L231" s="7">
-        <v>9.6129212962962995</v>
+      <c r="L231" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M231" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N231" s="5"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="8" t="s">
         <v>476</v>
       </c>
@@ -10458,15 +10461,15 @@
       <c r="K232" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L232" s="7">
-        <v>9.6545879629629603</v>
+      <c r="L232" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M232" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N232" s="5"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="8" t="s">
         <v>478</v>
       </c>
@@ -10494,15 +10497,15 @@
       <c r="K233" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L233" s="7">
-        <v>9.6962546296296299</v>
+      <c r="L233" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M233" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N233" s="5"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="8" t="s">
         <v>480</v>
       </c>
@@ -10530,15 +10533,15 @@
       <c r="K234" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L234" s="7">
-        <v>9.7379212962962995</v>
+      <c r="L234" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M234" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N234" s="5"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" s="8" t="s">
         <v>482</v>
       </c>
@@ -10566,15 +10569,15 @@
       <c r="K235" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L235" s="7">
-        <v>9.7795879629629603</v>
+      <c r="L235" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M235" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N235" s="5"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" s="8" t="s">
         <v>484</v>
       </c>
@@ -10602,15 +10605,15 @@
       <c r="K236" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L236" s="7">
-        <v>9.8212546296296299</v>
+      <c r="L236" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M236" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N236" s="5"/>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" s="8" t="s">
         <v>486</v>
       </c>
@@ -10638,15 +10641,15 @@
       <c r="K237" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L237" s="7">
-        <v>9.8629212962962995</v>
+      <c r="L237" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M237" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N237" s="5"/>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" s="8" t="s">
         <v>488</v>
       </c>
@@ -10674,15 +10677,15 @@
       <c r="K238" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L238" s="7">
-        <v>9.9045879629629603</v>
+      <c r="L238" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M238" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N238" s="5"/>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" s="8" t="s">
         <v>490</v>
       </c>
@@ -10710,15 +10713,15 @@
       <c r="K239" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L239" s="7">
-        <v>9.9462546296296299</v>
+      <c r="L239" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M239" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N239" s="5"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" s="8" t="s">
         <v>492</v>
       </c>
@@ -10746,15 +10749,15 @@
       <c r="K240" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L240" s="7">
-        <v>9.9879212962962995</v>
+      <c r="L240" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M240" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N240" s="5"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241" s="8" t="s">
         <v>494</v>
       </c>
@@ -10782,15 +10785,15 @@
       <c r="K241" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L241" s="7">
-        <v>10.029587962962999</v>
+      <c r="L241" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M241" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N241" s="5"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" s="8" t="s">
         <v>496</v>
       </c>
@@ -10818,15 +10821,15 @@
       <c r="K242" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L242" s="7">
-        <v>10.0712546296296</v>
+      <c r="L242" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M242" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N242" s="5"/>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243" s="8" t="s">
         <v>498</v>
       </c>
@@ -10854,15 +10857,15 @@
       <c r="K243" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L243" s="7">
-        <v>10.1129212962963</v>
+      <c r="L243" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M243" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N243" s="5"/>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" s="8" t="s">
         <v>500</v>
       </c>
@@ -10890,15 +10893,15 @@
       <c r="K244" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L244" s="7">
-        <v>10.154587962962999</v>
+      <c r="L244" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M244" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N244" s="5"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245" s="8" t="s">
         <v>502</v>
       </c>
@@ -10926,15 +10929,15 @@
       <c r="K245" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L245" s="7">
-        <v>10.1962546296296</v>
+      <c r="L245" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M245" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N245" s="5"/>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246" s="8" t="s">
         <v>504</v>
       </c>
@@ -10962,15 +10965,15 @@
       <c r="K246" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L246" s="7">
-        <v>10.2379212962963</v>
+      <c r="L246" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M246" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N246" s="5"/>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" s="8" t="s">
         <v>506</v>
       </c>
@@ -10998,15 +11001,15 @@
       <c r="K247" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L247" s="7">
-        <v>10.279587962962999</v>
+      <c r="L247" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M247" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N247" s="5"/>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" s="8" t="s">
         <v>508</v>
       </c>
@@ -11034,15 +11037,15 @@
       <c r="K248" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L248" s="7">
-        <v>10.3212546296296</v>
+      <c r="L248" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M248" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N248" s="5"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" s="8" t="s">
         <v>510</v>
       </c>
@@ -11070,15 +11073,15 @@
       <c r="K249" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L249" s="7">
-        <v>10.3629212962963</v>
+      <c r="L249" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M249" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N249" s="5"/>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" s="8" t="s">
         <v>512</v>
       </c>
@@ -11106,15 +11109,15 @@
       <c r="K250" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L250" s="7">
-        <v>10.404587962962999</v>
+      <c r="L250" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M250" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N250" s="5"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251" s="8" t="s">
         <v>514</v>
       </c>
@@ -11142,15 +11145,15 @@
       <c r="K251" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L251" s="7">
-        <v>10.4462546296296</v>
+      <c r="L251" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M251" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N251" s="5"/>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252" s="8" t="s">
         <v>516</v>
       </c>
@@ -11178,15 +11181,15 @@
       <c r="K252" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L252" s="7">
-        <v>10.4879212962963</v>
+      <c r="L252" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M252" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N252" s="5"/>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" s="8" t="s">
         <v>518</v>
       </c>
@@ -11214,15 +11217,15 @@
       <c r="K253" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L253" s="7">
-        <v>10.529587962962999</v>
+      <c r="L253" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M253" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N253" s="5"/>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254" s="8" t="s">
         <v>520</v>
       </c>
@@ -11250,15 +11253,15 @@
       <c r="K254" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L254" s="7">
-        <v>10.5712546296296</v>
+      <c r="L254" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M254" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N254" s="5"/>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" s="8" t="s">
         <v>522</v>
       </c>
@@ -11286,15 +11289,15 @@
       <c r="K255" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L255" s="7">
-        <v>10.6129212962963</v>
+      <c r="L255" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M255" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N255" s="5"/>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256" s="8" t="s">
         <v>524</v>
       </c>
@@ -11322,15 +11325,15 @@
       <c r="K256" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L256" s="7">
-        <v>10.654587962962999</v>
+      <c r="L256" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M256" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N256" s="5"/>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257" s="8" t="s">
         <v>526</v>
       </c>
@@ -11358,15 +11361,15 @@
       <c r="K257" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L257" s="7">
-        <v>10.6962546296296</v>
+      <c r="L257" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M257" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N257" s="5"/>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" s="8" t="s">
         <v>528</v>
       </c>
@@ -11394,15 +11397,15 @@
       <c r="K258" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L258" s="7">
-        <v>10.7379212962963</v>
+      <c r="L258" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M258" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N258" s="5"/>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259" s="8" t="s">
         <v>530</v>
       </c>
@@ -11430,15 +11433,15 @@
       <c r="K259" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L259" s="7">
-        <v>10.779587962962999</v>
+      <c r="L259" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M259" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N259" s="5"/>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260" s="8" t="s">
         <v>532</v>
       </c>
@@ -11466,15 +11469,15 @@
       <c r="K260" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L260" s="7">
-        <v>10.8212546296296</v>
+      <c r="L260" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M260" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N260" s="5"/>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261" s="8" t="s">
         <v>534</v>
       </c>
@@ -11502,15 +11505,15 @@
       <c r="K261" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L261" s="7">
-        <v>10.8629212962963</v>
+      <c r="L261" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M261" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N261" s="5"/>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262" s="8" t="s">
         <v>536</v>
       </c>
@@ -11538,15 +11541,15 @@
       <c r="K262" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L262" s="7">
-        <v>10.904587962962999</v>
+      <c r="L262" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M262" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N262" s="5"/>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
         <v>538</v>
       </c>
@@ -11574,15 +11577,15 @@
       <c r="K263" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L263" s="7">
-        <v>10.9462546296296</v>
+      <c r="L263" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M263" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N263" s="5"/>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" s="8" t="s">
         <v>540</v>
       </c>
@@ -11610,8 +11613,8 @@
       <c r="K264" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L264" s="7">
-        <v>10.9879212962963</v>
+      <c r="L264" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M264" s="6" t="b">
         <v>0</v>

--- a/mosip_master/xlsx/user_detail_h.xlsx
+++ b/mosip_master/xlsx/user_detail_h.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BE23E9-15AA-4588-8472-6F19AD347B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D5AE2F-AF26-42D2-80DD-5BBA6C216570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A50AB6CA-8963-414F-AC35-7F2A9A2A0667}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="544">
   <si>
     <t>id</t>
   </si>
@@ -1665,6 +1665,9 @@
   </si>
   <si>
     <t>now()</t>
+  </si>
+  <si>
+    <t>eff_dtimes</t>
   </si>
 </sst>
 </file>
@@ -2090,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70704E1F-DAF5-4599-861B-FE8C7B02F5DB}">
-  <dimension ref="A1:N264"/>
+  <dimension ref="A1:O264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B245" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L264"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2106,10 +2109,11 @@
     <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.1796875" customWidth="1"/>
-    <col min="14" max="14" width="12.1796875" customWidth="1"/>
+    <col min="14" max="14" width="10.36328125" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2152,8 +2156,11 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -2188,8 +2195,11 @@
         <v>0</v>
       </c>
       <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -2224,8 +2234,11 @@
         <v>0</v>
       </c>
       <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -2260,8 +2273,11 @@
         <v>0</v>
       </c>
       <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -2296,8 +2312,11 @@
         <v>0</v>
       </c>
       <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -2332,8 +2351,11 @@
         <v>0</v>
       </c>
       <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -2368,8 +2390,11 @@
         <v>0</v>
       </c>
       <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
@@ -2404,8 +2429,11 @@
         <v>0</v>
       </c>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -2440,8 +2468,11 @@
         <v>0</v>
       </c>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O9" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
@@ -2476,8 +2507,11 @@
         <v>0</v>
       </c>
       <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
@@ -2512,8 +2546,11 @@
         <v>0</v>
       </c>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
@@ -2548,8 +2585,11 @@
         <v>0</v>
       </c>
       <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O12" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
@@ -2584,8 +2624,11 @@
         <v>0</v>
       </c>
       <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
@@ -2620,8 +2663,11 @@
         <v>0</v>
       </c>
       <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
@@ -2656,8 +2702,11 @@
         <v>0</v>
       </c>
       <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O15" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
@@ -2692,8 +2741,11 @@
         <v>0</v>
       </c>
       <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
@@ -2728,8 +2780,11 @@
         <v>0</v>
       </c>
       <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O17" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
@@ -2764,8 +2819,11 @@
         <v>0</v>
       </c>
       <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O18" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
@@ -2800,8 +2858,11 @@
         <v>0</v>
       </c>
       <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O19" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
@@ -2836,8 +2897,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O20" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>54</v>
       </c>
@@ -2872,8 +2936,11 @@
         <v>0</v>
       </c>
       <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O21" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>56</v>
       </c>
@@ -2908,8 +2975,11 @@
         <v>0</v>
       </c>
       <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O22" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>58</v>
       </c>
@@ -2944,8 +3014,11 @@
         <v>0</v>
       </c>
       <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
@@ -2980,8 +3053,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O24" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>62</v>
       </c>
@@ -3016,8 +3092,11 @@
         <v>0</v>
       </c>
       <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O25" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>64</v>
       </c>
@@ -3052,8 +3131,11 @@
         <v>0</v>
       </c>
       <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O26" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>66</v>
       </c>
@@ -3088,8 +3170,11 @@
         <v>0</v>
       </c>
       <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O27" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>68</v>
       </c>
@@ -3124,8 +3209,11 @@
         <v>0</v>
       </c>
       <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O28" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>70</v>
       </c>
@@ -3160,8 +3248,11 @@
         <v>0</v>
       </c>
       <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O29" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>72</v>
       </c>
@@ -3196,8 +3287,11 @@
         <v>0</v>
       </c>
       <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O30" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
@@ -3232,8 +3326,11 @@
         <v>0</v>
       </c>
       <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O31" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>76</v>
       </c>
@@ -3268,8 +3365,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O32" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>78</v>
       </c>
@@ -3304,8 +3404,11 @@
         <v>0</v>
       </c>
       <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O33" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>80</v>
       </c>
@@ -3340,8 +3443,11 @@
         <v>0</v>
       </c>
       <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O34" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>82</v>
       </c>
@@ -3376,8 +3482,11 @@
         <v>0</v>
       </c>
       <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O35" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>84</v>
       </c>
@@ -3412,8 +3521,11 @@
         <v>0</v>
       </c>
       <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O36" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>86</v>
       </c>
@@ -3448,8 +3560,11 @@
         <v>0</v>
       </c>
       <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O37" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>88</v>
       </c>
@@ -3484,8 +3599,11 @@
         <v>0</v>
       </c>
       <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O38" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>90</v>
       </c>
@@ -3520,8 +3638,11 @@
         <v>0</v>
       </c>
       <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O39" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>92</v>
       </c>
@@ -3556,8 +3677,11 @@
         <v>0</v>
       </c>
       <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O40" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>94</v>
       </c>
@@ -3592,8 +3716,11 @@
         <v>0</v>
       </c>
       <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O41" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>96</v>
       </c>
@@ -3628,8 +3755,11 @@
         <v>0</v>
       </c>
       <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O42" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>98</v>
       </c>
@@ -3664,8 +3794,11 @@
         <v>0</v>
       </c>
       <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O43" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>100</v>
       </c>
@@ -3700,8 +3833,11 @@
         <v>0</v>
       </c>
       <c r="N44" s="5"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O44" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>102</v>
       </c>
@@ -3736,8 +3872,11 @@
         <v>0</v>
       </c>
       <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O45" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>104</v>
       </c>
@@ -3772,8 +3911,11 @@
         <v>0</v>
       </c>
       <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O46" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>106</v>
       </c>
@@ -3808,8 +3950,11 @@
         <v>0</v>
       </c>
       <c r="N47" s="5"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O47" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>108</v>
       </c>
@@ -3844,8 +3989,11 @@
         <v>0</v>
       </c>
       <c r="N48" s="5"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O48" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>110</v>
       </c>
@@ -3880,8 +4028,11 @@
         <v>0</v>
       </c>
       <c r="N49" s="5"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O49" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>112</v>
       </c>
@@ -3916,8 +4067,11 @@
         <v>0</v>
       </c>
       <c r="N50" s="5"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O50" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>114</v>
       </c>
@@ -3952,8 +4106,11 @@
         <v>0</v>
       </c>
       <c r="N51" s="5"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O51" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>116</v>
       </c>
@@ -3988,8 +4145,11 @@
         <v>0</v>
       </c>
       <c r="N52" s="5"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O52" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>118</v>
       </c>
@@ -4024,8 +4184,11 @@
         <v>0</v>
       </c>
       <c r="N53" s="5"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O53" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>120</v>
       </c>
@@ -4060,8 +4223,11 @@
         <v>0</v>
       </c>
       <c r="N54" s="5"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O54" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>122</v>
       </c>
@@ -4096,8 +4262,11 @@
         <v>0</v>
       </c>
       <c r="N55" s="5"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O55" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>124</v>
       </c>
@@ -4132,8 +4301,11 @@
         <v>0</v>
       </c>
       <c r="N56" s="5"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O56" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>126</v>
       </c>
@@ -4168,8 +4340,11 @@
         <v>0</v>
       </c>
       <c r="N57" s="5"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O57" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>128</v>
       </c>
@@ -4204,8 +4379,11 @@
         <v>0</v>
       </c>
       <c r="N58" s="5"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O58" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>130</v>
       </c>
@@ -4240,8 +4418,11 @@
         <v>0</v>
       </c>
       <c r="N59" s="5"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O59" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>132</v>
       </c>
@@ -4276,8 +4457,11 @@
         <v>0</v>
       </c>
       <c r="N60" s="5"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O60" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>134</v>
       </c>
@@ -4312,8 +4496,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="5"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O61" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>136</v>
       </c>
@@ -4348,8 +4535,11 @@
         <v>0</v>
       </c>
       <c r="N62" s="5"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O62" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>138</v>
       </c>
@@ -4384,8 +4574,11 @@
         <v>0</v>
       </c>
       <c r="N63" s="5"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O63" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>140</v>
       </c>
@@ -4420,8 +4613,11 @@
         <v>0</v>
       </c>
       <c r="N64" s="5"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O64" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>142</v>
       </c>
@@ -4456,8 +4652,11 @@
         <v>0</v>
       </c>
       <c r="N65" s="5"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O65" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>144</v>
       </c>
@@ -4492,8 +4691,11 @@
         <v>0</v>
       </c>
       <c r="N66" s="5"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O66" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>146</v>
       </c>
@@ -4528,8 +4730,11 @@
         <v>0</v>
       </c>
       <c r="N67" s="5"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O67" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>148</v>
       </c>
@@ -4564,8 +4769,11 @@
         <v>0</v>
       </c>
       <c r="N68" s="5"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O68" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>150</v>
       </c>
@@ -4600,8 +4808,11 @@
         <v>0</v>
       </c>
       <c r="N69" s="5"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O69" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>152</v>
       </c>
@@ -4636,8 +4847,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="5"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O70" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>154</v>
       </c>
@@ -4672,8 +4886,11 @@
         <v>0</v>
       </c>
       <c r="N71" s="5"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O71" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>156</v>
       </c>
@@ -4708,8 +4925,11 @@
         <v>0</v>
       </c>
       <c r="N72" s="5"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O72" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>158</v>
       </c>
@@ -4744,8 +4964,11 @@
         <v>0</v>
       </c>
       <c r="N73" s="5"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O73" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>160</v>
       </c>
@@ -4780,8 +5003,11 @@
         <v>0</v>
       </c>
       <c r="N74" s="5"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O74" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>162</v>
       </c>
@@ -4816,8 +5042,11 @@
         <v>0</v>
       </c>
       <c r="N75" s="5"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O75" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>164</v>
       </c>
@@ -4852,8 +5081,11 @@
         <v>0</v>
       </c>
       <c r="N76" s="5"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O76" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>166</v>
       </c>
@@ -4888,8 +5120,11 @@
         <v>0</v>
       </c>
       <c r="N77" s="5"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O77" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>168</v>
       </c>
@@ -4924,8 +5159,11 @@
         <v>0</v>
       </c>
       <c r="N78" s="5"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O78" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
         <v>170</v>
       </c>
@@ -4960,8 +5198,11 @@
         <v>0</v>
       </c>
       <c r="N79" s="5"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O79" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
         <v>172</v>
       </c>
@@ -4996,8 +5237,11 @@
         <v>0</v>
       </c>
       <c r="N80" s="5"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O80" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
         <v>174</v>
       </c>
@@ -5032,8 +5276,11 @@
         <v>0</v>
       </c>
       <c r="N81" s="5"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O81" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>176</v>
       </c>
@@ -5068,8 +5315,11 @@
         <v>0</v>
       </c>
       <c r="N82" s="5"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O82" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>178</v>
       </c>
@@ -5104,8 +5354,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="5"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O83" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>180</v>
       </c>
@@ -5140,8 +5393,11 @@
         <v>0</v>
       </c>
       <c r="N84" s="5"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O84" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>182</v>
       </c>
@@ -5176,8 +5432,11 @@
         <v>0</v>
       </c>
       <c r="N85" s="5"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O85" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>184</v>
       </c>
@@ -5212,8 +5471,11 @@
         <v>0</v>
       </c>
       <c r="N86" s="5"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O86" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
         <v>186</v>
       </c>
@@ -5248,8 +5510,11 @@
         <v>0</v>
       </c>
       <c r="N87" s="5"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O87" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>188</v>
       </c>
@@ -5284,8 +5549,11 @@
         <v>0</v>
       </c>
       <c r="N88" s="5"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O88" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>190</v>
       </c>
@@ -5320,8 +5588,11 @@
         <v>0</v>
       </c>
       <c r="N89" s="5"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O89" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>192</v>
       </c>
@@ -5356,8 +5627,11 @@
         <v>0</v>
       </c>
       <c r="N90" s="5"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O90" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>194</v>
       </c>
@@ -5392,8 +5666,11 @@
         <v>0</v>
       </c>
       <c r="N91" s="5"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O91" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>196</v>
       </c>
@@ -5428,8 +5705,11 @@
         <v>0</v>
       </c>
       <c r="N92" s="5"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O92" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>198</v>
       </c>
@@ -5464,8 +5744,11 @@
         <v>0</v>
       </c>
       <c r="N93" s="5"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O93" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
         <v>200</v>
       </c>
@@ -5500,8 +5783,11 @@
         <v>0</v>
       </c>
       <c r="N94" s="5"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O94" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>202</v>
       </c>
@@ -5536,8 +5822,11 @@
         <v>0</v>
       </c>
       <c r="N95" s="5"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O95" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>204</v>
       </c>
@@ -5572,8 +5861,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="5"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O96" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>206</v>
       </c>
@@ -5608,8 +5900,11 @@
         <v>0</v>
       </c>
       <c r="N97" s="5"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O97" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>208</v>
       </c>
@@ -5644,8 +5939,11 @@
         <v>0</v>
       </c>
       <c r="N98" s="5"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O98" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>210</v>
       </c>
@@ -5680,8 +5978,11 @@
         <v>0</v>
       </c>
       <c r="N99" s="5"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O99" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>212</v>
       </c>
@@ -5716,8 +6017,11 @@
         <v>0</v>
       </c>
       <c r="N100" s="5"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O100" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>214</v>
       </c>
@@ -5752,8 +6056,11 @@
         <v>0</v>
       </c>
       <c r="N101" s="5"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O101" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
         <v>216</v>
       </c>
@@ -5788,8 +6095,11 @@
         <v>0</v>
       </c>
       <c r="N102" s="5"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O102" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
         <v>218</v>
       </c>
@@ -5824,8 +6134,11 @@
         <v>0</v>
       </c>
       <c r="N103" s="5"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O103" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>220</v>
       </c>
@@ -5860,8 +6173,11 @@
         <v>0</v>
       </c>
       <c r="N104" s="5"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O104" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
         <v>222</v>
       </c>
@@ -5896,8 +6212,11 @@
         <v>0</v>
       </c>
       <c r="N105" s="5"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O105" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
         <v>224</v>
       </c>
@@ -5932,8 +6251,11 @@
         <v>0</v>
       </c>
       <c r="N106" s="5"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O106" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>226</v>
       </c>
@@ -5968,8 +6290,11 @@
         <v>0</v>
       </c>
       <c r="N107" s="5"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O107" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
         <v>228</v>
       </c>
@@ -6004,8 +6329,11 @@
         <v>0</v>
       </c>
       <c r="N108" s="5"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O108" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
         <v>230</v>
       </c>
@@ -6040,8 +6368,11 @@
         <v>0</v>
       </c>
       <c r="N109" s="5"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O109" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
         <v>232</v>
       </c>
@@ -6076,8 +6407,11 @@
         <v>0</v>
       </c>
       <c r="N110" s="5"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O110" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
         <v>234</v>
       </c>
@@ -6112,8 +6446,11 @@
         <v>0</v>
       </c>
       <c r="N111" s="5"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O111" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
         <v>236</v>
       </c>
@@ -6148,8 +6485,11 @@
         <v>0</v>
       </c>
       <c r="N112" s="5"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O112" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
         <v>238</v>
       </c>
@@ -6184,8 +6524,11 @@
         <v>0</v>
       </c>
       <c r="N113" s="5"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O113" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>240</v>
       </c>
@@ -6220,8 +6563,11 @@
         <v>0</v>
       </c>
       <c r="N114" s="5"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O114" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>242</v>
       </c>
@@ -6256,8 +6602,11 @@
         <v>0</v>
       </c>
       <c r="N115" s="5"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O115" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
         <v>244</v>
       </c>
@@ -6292,8 +6641,11 @@
         <v>0</v>
       </c>
       <c r="N116" s="5"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O116" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
         <v>246</v>
       </c>
@@ -6328,8 +6680,11 @@
         <v>0</v>
       </c>
       <c r="N117" s="5"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O117" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>248</v>
       </c>
@@ -6364,8 +6719,11 @@
         <v>0</v>
       </c>
       <c r="N118" s="5"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O118" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>250</v>
       </c>
@@ -6400,8 +6758,11 @@
         <v>0</v>
       </c>
       <c r="N119" s="5"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O119" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
         <v>252</v>
       </c>
@@ -6436,8 +6797,11 @@
         <v>0</v>
       </c>
       <c r="N120" s="5"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O120" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
         <v>254</v>
       </c>
@@ -6472,8 +6836,11 @@
         <v>0</v>
       </c>
       <c r="N121" s="5"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O121" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
         <v>256</v>
       </c>
@@ -6508,8 +6875,11 @@
         <v>0</v>
       </c>
       <c r="N122" s="5"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O122" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
         <v>258</v>
       </c>
@@ -6544,8 +6914,11 @@
         <v>0</v>
       </c>
       <c r="N123" s="5"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O123" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>260</v>
       </c>
@@ -6580,8 +6953,11 @@
         <v>0</v>
       </c>
       <c r="N124" s="5"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O124" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>262</v>
       </c>
@@ -6616,8 +6992,11 @@
         <v>0</v>
       </c>
       <c r="N125" s="5"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O125" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
         <v>264</v>
       </c>
@@ -6652,8 +7031,11 @@
         <v>0</v>
       </c>
       <c r="N126" s="5"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O126" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
         <v>266</v>
       </c>
@@ -6688,8 +7070,11 @@
         <v>0</v>
       </c>
       <c r="N127" s="5"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O127" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
         <v>268</v>
       </c>
@@ -6724,8 +7109,11 @@
         <v>0</v>
       </c>
       <c r="N128" s="5"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O128" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>270</v>
       </c>
@@ -6760,8 +7148,11 @@
         <v>0</v>
       </c>
       <c r="N129" s="5"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O129" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
         <v>272</v>
       </c>
@@ -6796,8 +7187,11 @@
         <v>0</v>
       </c>
       <c r="N130" s="5"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O130" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
         <v>274</v>
       </c>
@@ -6832,8 +7226,11 @@
         <v>0</v>
       </c>
       <c r="N131" s="5"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O131" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>276</v>
       </c>
@@ -6868,8 +7265,11 @@
         <v>0</v>
       </c>
       <c r="N132" s="5"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O132" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>278</v>
       </c>
@@ -6904,8 +7304,11 @@
         <v>0</v>
       </c>
       <c r="N133" s="5"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O133" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
         <v>280</v>
       </c>
@@ -6940,8 +7343,11 @@
         <v>0</v>
       </c>
       <c r="N134" s="5"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O134" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
         <v>282</v>
       </c>
@@ -6976,8 +7382,11 @@
         <v>0</v>
       </c>
       <c r="N135" s="5"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O135" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
         <v>284</v>
       </c>
@@ -7012,8 +7421,11 @@
         <v>0</v>
       </c>
       <c r="N136" s="5"/>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O136" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
         <v>286</v>
       </c>
@@ -7048,8 +7460,11 @@
         <v>0</v>
       </c>
       <c r="N137" s="5"/>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O137" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
         <v>288</v>
       </c>
@@ -7084,8 +7499,11 @@
         <v>0</v>
       </c>
       <c r="N138" s="5"/>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O138" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
         <v>290</v>
       </c>
@@ -7120,8 +7538,11 @@
         <v>0</v>
       </c>
       <c r="N139" s="5"/>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O139" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>292</v>
       </c>
@@ -7156,8 +7577,11 @@
         <v>0</v>
       </c>
       <c r="N140" s="5"/>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O140" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
         <v>294</v>
       </c>
@@ -7192,8 +7616,11 @@
         <v>0</v>
       </c>
       <c r="N141" s="5"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O141" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
         <v>296</v>
       </c>
@@ -7228,8 +7655,11 @@
         <v>0</v>
       </c>
       <c r="N142" s="5"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O142" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
         <v>298</v>
       </c>
@@ -7264,8 +7694,11 @@
         <v>0</v>
       </c>
       <c r="N143" s="5"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O143" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
         <v>300</v>
       </c>
@@ -7300,8 +7733,11 @@
         <v>0</v>
       </c>
       <c r="N144" s="5"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O144" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
         <v>302</v>
       </c>
@@ -7336,8 +7772,11 @@
         <v>0</v>
       </c>
       <c r="N145" s="5"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O145" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
         <v>304</v>
       </c>
@@ -7372,8 +7811,11 @@
         <v>0</v>
       </c>
       <c r="N146" s="5"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O146" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>306</v>
       </c>
@@ -7408,8 +7850,11 @@
         <v>0</v>
       </c>
       <c r="N147" s="5"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O147" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
         <v>308</v>
       </c>
@@ -7444,8 +7889,11 @@
         <v>0</v>
       </c>
       <c r="N148" s="5"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O148" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
         <v>310</v>
       </c>
@@ -7480,8 +7928,11 @@
         <v>0</v>
       </c>
       <c r="N149" s="5"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O149" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
         <v>312</v>
       </c>
@@ -7516,8 +7967,11 @@
         <v>0</v>
       </c>
       <c r="N150" s="5"/>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O150" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
         <v>314</v>
       </c>
@@ -7552,8 +8006,11 @@
         <v>0</v>
       </c>
       <c r="N151" s="5"/>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O151" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
         <v>316</v>
       </c>
@@ -7588,8 +8045,11 @@
         <v>0</v>
       </c>
       <c r="N152" s="5"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O152" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
         <v>318</v>
       </c>
@@ -7624,8 +8084,11 @@
         <v>0</v>
       </c>
       <c r="N153" s="5"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O153" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" s="8" t="s">
         <v>320</v>
       </c>
@@ -7660,8 +8123,11 @@
         <v>0</v>
       </c>
       <c r="N154" s="5"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O154" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
         <v>322</v>
       </c>
@@ -7696,8 +8162,11 @@
         <v>0</v>
       </c>
       <c r="N155" s="5"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O155" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
         <v>324</v>
       </c>
@@ -7732,8 +8201,11 @@
         <v>0</v>
       </c>
       <c r="N156" s="5"/>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O156" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
         <v>326</v>
       </c>
@@ -7768,8 +8240,11 @@
         <v>0</v>
       </c>
       <c r="N157" s="5"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O157" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
         <v>328</v>
       </c>
@@ -7804,8 +8279,11 @@
         <v>0</v>
       </c>
       <c r="N158" s="5"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O158" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
         <v>330</v>
       </c>
@@ -7840,8 +8318,11 @@
         <v>0</v>
       </c>
       <c r="N159" s="5"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O159" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
         <v>332</v>
       </c>
@@ -7876,8 +8357,11 @@
         <v>0</v>
       </c>
       <c r="N160" s="5"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O160" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
         <v>334</v>
       </c>
@@ -7912,8 +8396,11 @@
         <v>0</v>
       </c>
       <c r="N161" s="5"/>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O161" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
         <v>336</v>
       </c>
@@ -7948,8 +8435,11 @@
         <v>0</v>
       </c>
       <c r="N162" s="5"/>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O162" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
         <v>338</v>
       </c>
@@ -7984,8 +8474,11 @@
         <v>0</v>
       </c>
       <c r="N163" s="5"/>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O163" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
         <v>340</v>
       </c>
@@ -8020,8 +8513,11 @@
         <v>0</v>
       </c>
       <c r="N164" s="5"/>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O164" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
         <v>342</v>
       </c>
@@ -8056,8 +8552,11 @@
         <v>0</v>
       </c>
       <c r="N165" s="5"/>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O165" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
         <v>344</v>
       </c>
@@ -8092,8 +8591,11 @@
         <v>0</v>
       </c>
       <c r="N166" s="5"/>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O166" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
         <v>346</v>
       </c>
@@ -8128,8 +8630,11 @@
         <v>0</v>
       </c>
       <c r="N167" s="5"/>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O167" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" s="8" t="s">
         <v>348</v>
       </c>
@@ -8164,8 +8669,11 @@
         <v>0</v>
       </c>
       <c r="N168" s="5"/>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O168" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="8" t="s">
         <v>350</v>
       </c>
@@ -8200,8 +8708,11 @@
         <v>0</v>
       </c>
       <c r="N169" s="5"/>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O169" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="8" t="s">
         <v>352</v>
       </c>
@@ -8236,8 +8747,11 @@
         <v>0</v>
       </c>
       <c r="N170" s="5"/>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O170" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
         <v>354</v>
       </c>
@@ -8272,8 +8786,11 @@
         <v>0</v>
       </c>
       <c r="N171" s="5"/>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O171" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" s="8" t="s">
         <v>356</v>
       </c>
@@ -8308,8 +8825,11 @@
         <v>0</v>
       </c>
       <c r="N172" s="5"/>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O172" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
         <v>358</v>
       </c>
@@ -8344,8 +8864,11 @@
         <v>0</v>
       </c>
       <c r="N173" s="5"/>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O173" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" s="8" t="s">
         <v>360</v>
       </c>
@@ -8380,8 +8903,11 @@
         <v>0</v>
       </c>
       <c r="N174" s="5"/>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O174" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" s="8" t="s">
         <v>362</v>
       </c>
@@ -8416,8 +8942,11 @@
         <v>0</v>
       </c>
       <c r="N175" s="5"/>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O175" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" s="8" t="s">
         <v>364</v>
       </c>
@@ -8452,8 +8981,11 @@
         <v>0</v>
       </c>
       <c r="N176" s="5"/>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O176" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" s="8" t="s">
         <v>366</v>
       </c>
@@ -8488,8 +9020,11 @@
         <v>0</v>
       </c>
       <c r="N177" s="5"/>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O177" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" s="8" t="s">
         <v>368</v>
       </c>
@@ -8524,8 +9059,11 @@
         <v>0</v>
       </c>
       <c r="N178" s="5"/>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O178" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" s="8" t="s">
         <v>370</v>
       </c>
@@ -8560,8 +9098,11 @@
         <v>0</v>
       </c>
       <c r="N179" s="5"/>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O179" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" s="8" t="s">
         <v>372</v>
       </c>
@@ -8596,8 +9137,11 @@
         <v>0</v>
       </c>
       <c r="N180" s="5"/>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O180" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" s="8" t="s">
         <v>374</v>
       </c>
@@ -8632,8 +9176,11 @@
         <v>0</v>
       </c>
       <c r="N181" s="5"/>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O181" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" s="8" t="s">
         <v>376</v>
       </c>
@@ -8668,8 +9215,11 @@
         <v>0</v>
       </c>
       <c r="N182" s="5"/>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O182" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" s="8" t="s">
         <v>378</v>
       </c>
@@ -8704,8 +9254,11 @@
         <v>0</v>
       </c>
       <c r="N183" s="5"/>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O183" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" s="8" t="s">
         <v>380</v>
       </c>
@@ -8740,8 +9293,11 @@
         <v>0</v>
       </c>
       <c r="N184" s="5"/>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O184" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" s="8" t="s">
         <v>382</v>
       </c>
@@ -8776,8 +9332,11 @@
         <v>0</v>
       </c>
       <c r="N185" s="5"/>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O185" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" s="8" t="s">
         <v>384</v>
       </c>
@@ -8812,8 +9371,11 @@
         <v>0</v>
       </c>
       <c r="N186" s="5"/>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O186" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
         <v>386</v>
       </c>
@@ -8848,8 +9410,11 @@
         <v>0</v>
       </c>
       <c r="N187" s="5"/>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O187" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" s="8" t="s">
         <v>388</v>
       </c>
@@ -8884,8 +9449,11 @@
         <v>0</v>
       </c>
       <c r="N188" s="5"/>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O188" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" s="8" t="s">
         <v>390</v>
       </c>
@@ -8920,8 +9488,11 @@
         <v>0</v>
       </c>
       <c r="N189" s="5"/>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O189" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" s="8" t="s">
         <v>392</v>
       </c>
@@ -8956,8 +9527,11 @@
         <v>0</v>
       </c>
       <c r="N190" s="5"/>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O190" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
         <v>394</v>
       </c>
@@ -8992,8 +9566,11 @@
         <v>0</v>
       </c>
       <c r="N191" s="5"/>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O191" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" s="8" t="s">
         <v>396</v>
       </c>
@@ -9028,8 +9605,11 @@
         <v>0</v>
       </c>
       <c r="N192" s="5"/>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O192" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" s="8" t="s">
         <v>398</v>
       </c>
@@ -9064,8 +9644,11 @@
         <v>0</v>
       </c>
       <c r="N193" s="5"/>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O193" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" s="8" t="s">
         <v>400</v>
       </c>
@@ -9100,8 +9683,11 @@
         <v>0</v>
       </c>
       <c r="N194" s="5"/>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O194" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
         <v>402</v>
       </c>
@@ -9136,8 +9722,11 @@
         <v>0</v>
       </c>
       <c r="N195" s="5"/>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O195" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" s="8" t="s">
         <v>404</v>
       </c>
@@ -9172,8 +9761,11 @@
         <v>0</v>
       </c>
       <c r="N196" s="5"/>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O196" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" s="8" t="s">
         <v>406</v>
       </c>
@@ -9208,8 +9800,11 @@
         <v>0</v>
       </c>
       <c r="N197" s="5"/>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O197" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" s="8" t="s">
         <v>408</v>
       </c>
@@ -9244,8 +9839,11 @@
         <v>0</v>
       </c>
       <c r="N198" s="5"/>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O198" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" s="8" t="s">
         <v>410</v>
       </c>
@@ -9280,8 +9878,11 @@
         <v>0</v>
       </c>
       <c r="N199" s="5"/>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O199" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" s="8" t="s">
         <v>412</v>
       </c>
@@ -9316,8 +9917,11 @@
         <v>0</v>
       </c>
       <c r="N200" s="5"/>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O200" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" s="8" t="s">
         <v>414</v>
       </c>
@@ -9352,8 +9956,11 @@
         <v>0</v>
       </c>
       <c r="N201" s="5"/>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O201" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202" s="8" t="s">
         <v>416</v>
       </c>
@@ -9388,8 +9995,11 @@
         <v>0</v>
       </c>
       <c r="N202" s="5"/>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O202" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203" s="8" t="s">
         <v>418</v>
       </c>
@@ -9424,8 +10034,11 @@
         <v>0</v>
       </c>
       <c r="N203" s="5"/>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O203" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204" s="8" t="s">
         <v>420</v>
       </c>
@@ -9460,8 +10073,11 @@
         <v>0</v>
       </c>
       <c r="N204" s="5"/>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O204" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205" s="8" t="s">
         <v>422</v>
       </c>
@@ -9496,8 +10112,11 @@
         <v>0</v>
       </c>
       <c r="N205" s="5"/>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O205" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206" s="8" t="s">
         <v>424</v>
       </c>
@@ -9532,8 +10151,11 @@
         <v>0</v>
       </c>
       <c r="N206" s="5"/>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O206" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207" s="8" t="s">
         <v>426</v>
       </c>
@@ -9568,8 +10190,11 @@
         <v>0</v>
       </c>
       <c r="N207" s="5"/>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O207" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208" s="8" t="s">
         <v>428</v>
       </c>
@@ -9604,8 +10229,11 @@
         <v>0</v>
       </c>
       <c r="N208" s="5"/>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O208" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209" s="8" t="s">
         <v>430</v>
       </c>
@@ -9640,8 +10268,11 @@
         <v>0</v>
       </c>
       <c r="N209" s="5"/>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O209" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210" s="8" t="s">
         <v>432</v>
       </c>
@@ -9676,8 +10307,11 @@
         <v>0</v>
       </c>
       <c r="N210" s="5"/>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O210" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211" s="8" t="s">
         <v>434</v>
       </c>
@@ -9712,8 +10346,11 @@
         <v>0</v>
       </c>
       <c r="N211" s="5"/>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O211" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212" s="8" t="s">
         <v>436</v>
       </c>
@@ -9748,8 +10385,11 @@
         <v>0</v>
       </c>
       <c r="N212" s="5"/>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O212" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213" s="8" t="s">
         <v>438</v>
       </c>
@@ -9784,8 +10424,11 @@
         <v>0</v>
       </c>
       <c r="N213" s="5"/>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O213" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214" s="8" t="s">
         <v>440</v>
       </c>
@@ -9820,8 +10463,11 @@
         <v>0</v>
       </c>
       <c r="N214" s="5"/>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O214" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215" s="8" t="s">
         <v>442</v>
       </c>
@@ -9856,8 +10502,11 @@
         <v>0</v>
       </c>
       <c r="N215" s="5"/>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O215" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216" s="8" t="s">
         <v>444</v>
       </c>
@@ -9892,8 +10541,11 @@
         <v>0</v>
       </c>
       <c r="N216" s="5"/>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O216" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217" s="8" t="s">
         <v>446</v>
       </c>
@@ -9928,8 +10580,11 @@
         <v>0</v>
       </c>
       <c r="N217" s="5"/>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O217" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218" s="8" t="s">
         <v>448</v>
       </c>
@@ -9964,8 +10619,11 @@
         <v>0</v>
       </c>
       <c r="N218" s="5"/>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O218" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219" s="8" t="s">
         <v>450</v>
       </c>
@@ -10000,8 +10658,11 @@
         <v>0</v>
       </c>
       <c r="N219" s="5"/>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O219" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220" s="8" t="s">
         <v>452</v>
       </c>
@@ -10036,8 +10697,11 @@
         <v>0</v>
       </c>
       <c r="N220" s="5"/>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O220" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221" s="8" t="s">
         <v>454</v>
       </c>
@@ -10072,8 +10736,11 @@
         <v>0</v>
       </c>
       <c r="N221" s="5"/>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O221" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222" s="8" t="s">
         <v>456</v>
       </c>
@@ -10108,8 +10775,11 @@
         <v>0</v>
       </c>
       <c r="N222" s="5"/>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O222" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" s="8" t="s">
         <v>458</v>
       </c>
@@ -10144,8 +10814,11 @@
         <v>0</v>
       </c>
       <c r="N223" s="5"/>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O223" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224" s="8" t="s">
         <v>460</v>
       </c>
@@ -10180,8 +10853,11 @@
         <v>0</v>
       </c>
       <c r="N224" s="5"/>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O224" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225" s="8" t="s">
         <v>462</v>
       </c>
@@ -10216,8 +10892,11 @@
         <v>0</v>
       </c>
       <c r="N225" s="5"/>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O225" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" s="8" t="s">
         <v>464</v>
       </c>
@@ -10252,8 +10931,11 @@
         <v>0</v>
       </c>
       <c r="N226" s="5"/>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O226" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227" s="8" t="s">
         <v>466</v>
       </c>
@@ -10288,8 +10970,11 @@
         <v>0</v>
       </c>
       <c r="N227" s="5"/>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O227" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228" s="8" t="s">
         <v>468</v>
       </c>
@@ -10324,8 +11009,11 @@
         <v>0</v>
       </c>
       <c r="N228" s="5"/>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O228" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229" s="8" t="s">
         <v>470</v>
       </c>
@@ -10360,8 +11048,11 @@
         <v>0</v>
       </c>
       <c r="N229" s="5"/>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O229" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230" s="8" t="s">
         <v>472</v>
       </c>
@@ -10396,8 +11087,11 @@
         <v>0</v>
       </c>
       <c r="N230" s="5"/>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O230" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231" s="8" t="s">
         <v>474</v>
       </c>
@@ -10432,8 +11126,11 @@
         <v>0</v>
       </c>
       <c r="N231" s="5"/>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O231" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232" s="8" t="s">
         <v>476</v>
       </c>
@@ -10468,8 +11165,11 @@
         <v>0</v>
       </c>
       <c r="N232" s="5"/>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O232" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233" s="8" t="s">
         <v>478</v>
       </c>
@@ -10504,8 +11204,11 @@
         <v>0</v>
       </c>
       <c r="N233" s="5"/>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O233" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234" s="8" t="s">
         <v>480</v>
       </c>
@@ -10540,8 +11243,11 @@
         <v>0</v>
       </c>
       <c r="N234" s="5"/>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O234" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235" s="8" t="s">
         <v>482</v>
       </c>
@@ -10576,8 +11282,11 @@
         <v>0</v>
       </c>
       <c r="N235" s="5"/>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O235" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236" s="8" t="s">
         <v>484</v>
       </c>
@@ -10612,8 +11321,11 @@
         <v>0</v>
       </c>
       <c r="N236" s="5"/>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O236" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237" s="8" t="s">
         <v>486</v>
       </c>
@@ -10648,8 +11360,11 @@
         <v>0</v>
       </c>
       <c r="N237" s="5"/>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O237" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238" s="8" t="s">
         <v>488</v>
       </c>
@@ -10684,8 +11399,11 @@
         <v>0</v>
       </c>
       <c r="N238" s="5"/>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O238" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239" s="8" t="s">
         <v>490</v>
       </c>
@@ -10720,8 +11438,11 @@
         <v>0</v>
       </c>
       <c r="N239" s="5"/>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O239" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240" s="8" t="s">
         <v>492</v>
       </c>
@@ -10756,8 +11477,11 @@
         <v>0</v>
       </c>
       <c r="N240" s="5"/>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O240" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241" s="8" t="s">
         <v>494</v>
       </c>
@@ -10792,8 +11516,11 @@
         <v>0</v>
       </c>
       <c r="N241" s="5"/>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O241" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242" s="8" t="s">
         <v>496</v>
       </c>
@@ -10828,8 +11555,11 @@
         <v>0</v>
       </c>
       <c r="N242" s="5"/>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O242" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" s="8" t="s">
         <v>498</v>
       </c>
@@ -10864,8 +11594,11 @@
         <v>0</v>
       </c>
       <c r="N243" s="5"/>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O243" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" s="8" t="s">
         <v>500</v>
       </c>
@@ -10900,8 +11633,11 @@
         <v>0</v>
       </c>
       <c r="N244" s="5"/>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O244" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245" s="8" t="s">
         <v>502</v>
       </c>
@@ -10936,8 +11672,11 @@
         <v>0</v>
       </c>
       <c r="N245" s="5"/>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O245" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" s="8" t="s">
         <v>504</v>
       </c>
@@ -10972,8 +11711,11 @@
         <v>0</v>
       </c>
       <c r="N246" s="5"/>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O246" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" s="8" t="s">
         <v>506</v>
       </c>
@@ -11008,8 +11750,11 @@
         <v>0</v>
       </c>
       <c r="N247" s="5"/>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O247" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" s="8" t="s">
         <v>508</v>
       </c>
@@ -11044,8 +11789,11 @@
         <v>0</v>
       </c>
       <c r="N248" s="5"/>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O248" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" s="8" t="s">
         <v>510</v>
       </c>
@@ -11080,8 +11828,11 @@
         <v>0</v>
       </c>
       <c r="N249" s="5"/>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O249" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" s="8" t="s">
         <v>512</v>
       </c>
@@ -11116,8 +11867,11 @@
         <v>0</v>
       </c>
       <c r="N250" s="5"/>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O250" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" s="8" t="s">
         <v>514</v>
       </c>
@@ -11152,8 +11906,11 @@
         <v>0</v>
       </c>
       <c r="N251" s="5"/>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O251" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" s="8" t="s">
         <v>516</v>
       </c>
@@ -11188,8 +11945,11 @@
         <v>0</v>
       </c>
       <c r="N252" s="5"/>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O252" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" s="8" t="s">
         <v>518</v>
       </c>
@@ -11224,8 +11984,11 @@
         <v>0</v>
       </c>
       <c r="N253" s="5"/>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O253" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" s="8" t="s">
         <v>520</v>
       </c>
@@ -11260,8 +12023,11 @@
         <v>0</v>
       </c>
       <c r="N254" s="5"/>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O254" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" s="8" t="s">
         <v>522</v>
       </c>
@@ -11296,8 +12062,11 @@
         <v>0</v>
       </c>
       <c r="N255" s="5"/>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O255" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" s="8" t="s">
         <v>524</v>
       </c>
@@ -11332,8 +12101,11 @@
         <v>0</v>
       </c>
       <c r="N256" s="5"/>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O256" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" s="8" t="s">
         <v>526</v>
       </c>
@@ -11368,8 +12140,11 @@
         <v>0</v>
       </c>
       <c r="N257" s="5"/>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O257" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258" s="8" t="s">
         <v>528</v>
       </c>
@@ -11404,8 +12179,11 @@
         <v>0</v>
       </c>
       <c r="N258" s="5"/>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O258" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" s="8" t="s">
         <v>530</v>
       </c>
@@ -11440,8 +12218,11 @@
         <v>0</v>
       </c>
       <c r="N259" s="5"/>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O259" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" s="8" t="s">
         <v>532</v>
       </c>
@@ -11476,8 +12257,11 @@
         <v>0</v>
       </c>
       <c r="N260" s="5"/>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O260" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261" s="8" t="s">
         <v>534</v>
       </c>
@@ -11512,8 +12296,11 @@
         <v>0</v>
       </c>
       <c r="N261" s="5"/>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O261" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262" s="8" t="s">
         <v>536</v>
       </c>
@@ -11548,8 +12335,11 @@
         <v>0</v>
       </c>
       <c r="N262" s="5"/>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O262" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
         <v>538</v>
       </c>
@@ -11584,8 +12374,11 @@
         <v>0</v>
       </c>
       <c r="N263" s="5"/>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O263" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264" s="8" t="s">
         <v>540</v>
       </c>
@@ -11620,6 +12413,9 @@
         <v>0</v>
       </c>
       <c r="N264" s="5"/>
+      <c r="O264" t="s">
+        <v>542</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
